--- a/www.eia.gov/electricity/monthly/xls/table_b_1.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_b_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="353">
   <si>
     <t>Table B.1 Major Disturbances and Unusual Occurrences, Year-to-Date 2016</t>
   </si>
@@ -210,6 +210,12 @@
     <t>02/26/2016 12:01 AM</t>
   </si>
   <si>
+    <t>.        .</t>
+  </si>
+  <si>
+    <t>. Hours,  . Minutes</t>
+  </si>
+  <si>
     <t>California Department of Water Resources</t>
   </si>
   <si>
@@ -1051,6 +1057,24 @@
   </si>
   <si>
     <t>California: Plumas County;</t>
+  </si>
+  <si>
+    <t>11/09/2016 11:59 AM</t>
+  </si>
+  <si>
+    <t>11/09/2016  6:15 PM</t>
+  </si>
+  <si>
+    <t>6 Hours, 16 Minutes</t>
+  </si>
+  <si>
+    <t>Modesto Irrigation District</t>
+  </si>
+  <si>
+    <t>California: Stanislaus County, San Joaquin County, Alameda County, Tuolumne County;</t>
+  </si>
+  <si>
+    <t>Cyber event that could potentially impact electric power system adequacy or reliability-Cyber Attack</t>
   </si>
   <si>
     <t>Note: Customers affected are estimates and are preliminary.
@@ -1934,11 +1958,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,22 +2344,22 @@
         <v>61</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
@@ -2352,22 +2376,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>18</v>
@@ -2387,25 +2411,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
@@ -2422,22 +2446,22 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>18</v>
@@ -2457,25 +2481,25 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J16" s="4">
         <v>360</v>
@@ -2492,22 +2516,22 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>18</v>
@@ -2527,22 +2551,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>18</v>
@@ -2562,22 +2586,22 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>41</v>
@@ -2597,25 +2621,25 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>19</v>
@@ -2632,25 +2656,25 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J21" s="4">
         <v>461</v>
@@ -2667,25 +2691,25 @@
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>19</v>
@@ -2702,22 +2726,22 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>344</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>344</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>18</v>
@@ -2737,25 +2761,25 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J24" s="4">
         <v>150</v>
@@ -2772,22 +2796,22 @@
         <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>18</v>
@@ -2807,25 +2831,25 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>19</v>
@@ -2842,25 +2866,25 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>19</v>
@@ -2877,25 +2901,25 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>19</v>
@@ -2912,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>45</v>
@@ -2927,10 +2951,10 @@
         <v>30</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>19</v>
@@ -2947,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>50</v>
@@ -2962,10 +2986,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>19</v>
@@ -2982,13 +3006,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>55</v>
@@ -2997,10 +3021,10 @@
         <v>24</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J31" s="4">
         <v>600</v>
@@ -3017,25 +3041,25 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>19</v>
@@ -3052,25 +3076,25 @@
         <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J33" s="4">
         <v>450</v>
@@ -3087,25 +3111,25 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>19</v>
@@ -3122,25 +3146,25 @@
         <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>19</v>
@@ -3157,25 +3181,25 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>19</v>
@@ -3192,25 +3216,25 @@
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>19</v>
@@ -3227,25 +3251,25 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J38" s="4">
         <v>485</v>
@@ -3262,25 +3286,25 @@
         <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J39" s="4">
         <v>290</v>
@@ -3297,25 +3321,25 @@
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J40" s="4">
         <v>200</v>
@@ -3332,13 +3356,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>15</v>
@@ -3347,10 +3371,10 @@
         <v>16</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>19</v>
@@ -3367,25 +3391,25 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J42" s="4">
         <v>87</v>
@@ -3402,13 +3426,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>15</v>
@@ -3417,10 +3441,10 @@
         <v>16</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>19</v>
@@ -3437,25 +3461,25 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -3472,25 +3496,25 @@
         <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J45" s="4">
         <v>25</v>
@@ -3507,25 +3531,25 @@
         <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J46" s="4">
         <v>80</v>
@@ -3542,25 +3566,25 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J47" s="4">
         <v>22</v>
@@ -3577,25 +3601,25 @@
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -3612,25 +3636,25 @@
         <v>8</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>19</v>
@@ -3647,25 +3671,25 @@
         <v>8</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -3682,25 +3706,25 @@
         <v>8</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>19</v>
@@ -3717,25 +3741,25 @@
         <v>8</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J52" s="4">
         <v>506</v>
@@ -3752,25 +3776,25 @@
         <v>8</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>19</v>
@@ -3787,25 +3811,25 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J54" s="4">
         <v>600</v>
@@ -3822,22 +3846,22 @@
         <v>8</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>41</v>
@@ -3857,25 +3881,25 @@
         <v>8</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J56" s="4">
         <v>0</v>
@@ -3892,22 +3916,22 @@
         <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>41</v>
@@ -3927,25 +3951,25 @@
         <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J58" s="4">
         <v>100</v>
@@ -3962,25 +3986,25 @@
         <v>9</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="H59" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J59" s="4">
         <v>450</v>
@@ -3997,25 +4021,25 @@
         <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J60" s="4">
         <v>225</v>
@@ -4032,25 +4056,25 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>19</v>
@@ -4067,22 +4091,22 @@
         <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>41</v>
@@ -4102,25 +4126,25 @@
         <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J63" s="4">
         <v>210</v>
@@ -4137,22 +4161,22 @@
         <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>41</v>
@@ -4172,25 +4196,25 @@
         <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J65" s="4">
         <v>135</v>
@@ -4207,13 +4231,13 @@
         <v>9</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>15</v>
@@ -4222,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>19</v>
@@ -4242,25 +4266,25 @@
         <v>9</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J67" s="4">
         <v>110</v>
@@ -4277,25 +4301,25 @@
         <v>9</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J68" s="4">
         <v>2750</v>
@@ -4312,25 +4336,25 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="J69" s="4">
         <v>69</v>
@@ -4347,25 +4371,25 @@
         <v>10</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J70" s="4">
         <v>50</v>
@@ -4382,25 +4406,25 @@
         <v>10</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>19</v>
@@ -4417,25 +4441,25 @@
         <v>10</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>19</v>
@@ -4452,25 +4476,25 @@
         <v>10</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>19</v>
@@ -4487,25 +4511,25 @@
         <v>10</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J74" s="4">
         <v>5600</v>
@@ -4522,25 +4546,25 @@
         <v>10</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J75" s="4">
         <v>413</v>
@@ -4557,25 +4581,25 @@
         <v>10</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>19</v>
@@ -4592,25 +4616,25 @@
         <v>10</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J77" s="4">
         <v>122</v>
@@ -4627,25 +4651,25 @@
         <v>10</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>19</v>
@@ -4662,25 +4686,25 @@
         <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J79" s="4">
         <v>1050</v>
@@ -4697,13 +4721,13 @@
         <v>10</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>23</v>
@@ -4715,7 +4739,7 @@
         <v>25</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>19</v>
@@ -4732,25 +4756,25 @@
         <v>10</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>19</v>
@@ -4767,22 +4791,22 @@
         <v>10</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>41</v>
@@ -4794,9 +4818,44 @@
         <v>482</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>343</v>
+    <row r="83" spans="1:11" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B83" s="4">
+        <v>11</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
